--- a/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\P6\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\P6-LaTex\Content\Bilag\ElektroniskBilag\DataSocialAccept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Pause</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Gengiver ikke gestikken</t>
+  </si>
+  <si>
+    <t>Skru ned</t>
+  </si>
+  <si>
+    <t>Skru op</t>
   </si>
 </sst>
 </file>
@@ -118,606 +124,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Værten</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> retter fokus mod anlæg, når gestikker udføres</a:t>
-            </a:r>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Vært 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vært 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vært 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Vært 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vært 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Vært 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1473-489A-95DC-FF0B1E4A8293}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Vært 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vært 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vært 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Vært 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vært 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Vært 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1473-489A-95DC-FF0B1E4A8293}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Skift musiknummer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Vært 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vært 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vært 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Vært 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vært 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Vært 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1473-489A-95DC-FF0B1E4A8293}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Skru op og ned</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Vært 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vært 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vært 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Vært 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vært 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Vært 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$B$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1473-489A-95DC-FF0B1E4A8293}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="402233704"/>
-        <c:axId val="402234688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="402233704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="402234688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="402234688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="402233704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -1207,6 +613,693 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Kigger hen imod anlæg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vært 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vært 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vært 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vært 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vært 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vært 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A2D-47D1-B561-7E03A87D281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vært 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vært 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vært 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vært 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vært 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vært 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A2D-47D1-B561-7E03A87D281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skift musiknummer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vært 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vært 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vært 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vært 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vært 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vært 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A2D-47D1-B561-7E03A87D281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skru op</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vært 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vært 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vært 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vært 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vært 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vært 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A2D-47D1-B561-7E03A87D281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skru ned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vært 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vært 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vært 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vært 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vært 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vært 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6A2D-47D1-B561-7E03A87D281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="248057848"/>
+        <c:axId val="248051616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="248057848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248051616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="248051616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248057848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2297,23 +2390,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EF3433-0DE6-467F-A184-6A9BAA385E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB70765-AC92-47B1-B85B-32D0E2B1ABB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,23 +2426,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
+        <xdr:cNvPr id="4" name="Diagram 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB70765-AC92-47B1-B85B-32D0E2B1ABB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F93261-D11E-494F-AAF3-B17F09DD77BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,6 +2804,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>2</v>
       </c>
@@ -2749,6 +2845,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>6</v>
       </c>
@@ -2817,22 +2916,48 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\P6-LaTex\Content\Bilag\ElektroniskBilag\DataSocialAccept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranielsen93/Documents/UNI/AAU - PDP 6 .sem./P6 - projekt/P6-LaTex/Content/Bilag/ElektroniskBilag/DataSocialAccept/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,11 +83,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +126,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,7 +153,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
@@ -144,12 +173,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -157,17 +183,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Gæster</a:t>
+              <a:rPr lang="da-DK" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Gæster gengiver gestikker</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> gengiver gestikker</a:t>
-            </a:r>
-            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -181,12 +208,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -202,7 +226,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -228,6 +252,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'Ark1'!$J$1:$M$1</c:f>
@@ -255,21 +293,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39B5-4A01-9722-949FCB89094D}"/>
             </c:ext>
@@ -291,7 +329,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -326,21 +367,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B5-4A01-9722-949FCB89094D}"/>
             </c:ext>
@@ -362,7 +403,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -397,21 +441,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-39B5-4A01-9722-949FCB89094D}"/>
             </c:ext>
@@ -426,12 +470,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="402901320"/>
-        <c:axId val="402896072"/>
+        <c:overlap val="100"/>
+        <c:axId val="1114068432"/>
+        <c:axId val="1114070752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402901320"/>
+        <c:axId val="1114068432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,12 +503,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -474,7 +515,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402896072"/>
+        <c:crossAx val="1114070752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402896072"/>
+        <c:axId val="1114070752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +559,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -533,7 +571,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402901320"/>
+        <c:crossAx val="1114068432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -547,6 +585,67 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -560,12 +659,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -585,12 +681,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -600,7 +691,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="da-DK"/>
     </a:p>
@@ -614,7 +705,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
@@ -634,12 +725,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -647,12 +735,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Kigger hen imod anlæg</a:t>
+              <a:rPr lang="da-DK" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Værter som kigger hen mod anlægget</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,12 +759,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -687,7 +777,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -746,27 +836,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2D-47D1-B561-7E03A87D281F}"/>
             </c:ext>
@@ -788,7 +878,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -829,27 +922,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6A2D-47D1-B561-7E03A87D281F}"/>
             </c:ext>
@@ -871,7 +964,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -912,27 +1008,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A2D-47D1-B561-7E03A87D281F}"/>
             </c:ext>
@@ -954,7 +1050,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -995,27 +1094,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6A2D-47D1-B561-7E03A87D281F}"/>
             </c:ext>
@@ -1037,7 +1136,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1078,27 +1180,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6A2D-47D1-B561-7E03A87D281F}"/>
             </c:ext>
@@ -1113,12 +1215,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="248057848"/>
-        <c:axId val="248051616"/>
+        <c:overlap val="100"/>
+        <c:axId val="1114121504"/>
+        <c:axId val="1114124256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248057848"/>
+        <c:axId val="1114121504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,12 +1248,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1161,7 +1260,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248051616"/>
+        <c:crossAx val="1114124256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248051616"/>
+        <c:axId val="1114124256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,12 +1304,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1220,7 +1316,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248057848"/>
+        <c:crossAx val="1114121504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,6 +1330,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1247,12 +1344,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1272,12 +1366,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2390,27 +2479,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB70765-AC92-47B1-B85B-32D0E2B1ABB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADB70765-AC92-47B1-B85B-32D0E2B1ABB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2427,22 +2518,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39005</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149798</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Diagram 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F93261-D11E-494F-AAF3-B17F09DD77BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04F93261-D11E-494F-AAF3-B17F09DD77BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,6 +2552,159 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataTest1.csv"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="Q22" t="str">
+            <v>1. plads</v>
+          </cell>
+          <cell r="R22" t="str">
+            <v>2. plads</v>
+          </cell>
+          <cell r="S22" t="str">
+            <v>3. plads</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="P23">
+            <v>1</v>
+          </cell>
+          <cell r="Q23">
+            <v>2</v>
+          </cell>
+          <cell r="R23">
+            <v>3</v>
+          </cell>
+          <cell r="S23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="P24">
+            <v>2</v>
+          </cell>
+          <cell r="Q24">
+            <v>4</v>
+          </cell>
+          <cell r="R24">
+            <v>2</v>
+          </cell>
+          <cell r="S24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="P25">
+            <v>3</v>
+          </cell>
+          <cell r="Q25">
+            <v>6</v>
+          </cell>
+          <cell r="R25">
+            <v>2</v>
+          </cell>
+          <cell r="S25">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="P26">
+            <v>4</v>
+          </cell>
+          <cell r="Q26">
+            <v>3</v>
+          </cell>
+          <cell r="R26">
+            <v>5</v>
+          </cell>
+          <cell r="S26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>5</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>3</v>
+          </cell>
+          <cell r="S27">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>6</v>
+          </cell>
+          <cell r="Q28">
+            <v>1</v>
+          </cell>
+          <cell r="R28">
+            <v>2</v>
+          </cell>
+          <cell r="S28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="P29">
+            <v>7</v>
+          </cell>
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+          <cell r="S29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="P30">
+            <v>8</v>
+          </cell>
+          <cell r="Q30">
+            <v>0</v>
+          </cell>
+          <cell r="R30">
+            <v>0</v>
+          </cell>
+          <cell r="S30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="P31">
+            <v>9</v>
+          </cell>
+          <cell r="Q31">
+            <v>2</v>
+          </cell>
+          <cell r="R31">
+            <v>1</v>
+          </cell>
+          <cell r="S31">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2762,13 +3006,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2876,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2914,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2962,6 +3206,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataSocialAccept/Test2.xlsx
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,12 +65,6 @@
     <t>Vært 6</t>
   </si>
   <si>
-    <t>Gengiver gestikken rigtigt</t>
-  </si>
-  <si>
-    <t>Gengiver gestikken delvist rigtigt</t>
-  </si>
-  <si>
     <t>Gengiver ikke gestikken</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>Skru op</t>
+  </si>
+  <si>
+    <t>Gengiver gestikken delvist korrekt</t>
+  </si>
+  <si>
+    <t>Gengiver gestikken korrekt</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gengiver gestikken rigtigt</c:v>
+                  <c:v>Gengiver gestikken korrekt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gengiver gestikken delvist rigtigt</c:v>
+                  <c:v>Gengiver gestikken delvist korrekt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3007,7 +3007,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3067,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
